--- a/raw/chapacuran.xlsx
+++ b/raw/chapacuran.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/files/Projects/lexibank2018/birchallchapacuran/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="986">
   <si>
     <t xml:space="preserve">Meaning </t>
   </si>
@@ -124,10 +134,10 @@
     <t xml:space="preserve">awimo </t>
   </si>
   <si>
-    <t xml:space="preserve">ahum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He</t>
+    <t>ahum</t>
+  </si>
+  <si>
+    <t>He</t>
   </si>
   <si>
     <t xml:space="preserve">wiriko </t>
@@ -178,7 +188,7 @@
     <t xml:space="preserve">watʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">You pl.</t>
+    <t>You pl.</t>
   </si>
   <si>
     <t xml:space="preserve">wahuʔ </t>
@@ -190,10 +200,10 @@
     <t xml:space="preserve">wihu </t>
   </si>
   <si>
-    <t xml:space="preserve">wura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
+    <t>wura</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t xml:space="preserve">They </t>
@@ -217,7 +227,7 @@
     <t xml:space="preserve">B </t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">omapu </t>
@@ -235,16 +245,16 @@
     <t xml:space="preserve">ati </t>
   </si>
   <si>
-    <t xml:space="preserve">kaɲ</t>
+    <t>kaɲ</t>
   </si>
   <si>
     <t xml:space="preserve">teokaj </t>
   </si>
   <si>
-    <t xml:space="preserve">tikow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many</t>
+    <t>tikow</t>
+  </si>
+  <si>
+    <t>Many</t>
   </si>
   <si>
     <t xml:space="preserve">mija </t>
@@ -274,7 +284,7 @@
     <t xml:space="preserve">patiako </t>
   </si>
   <si>
-    <t xml:space="preserve">Few</t>
+    <t>Few</t>
   </si>
   <si>
     <t xml:space="preserve">parik </t>
@@ -289,13 +299,13 @@
     <t xml:space="preserve">kawasan toman </t>
   </si>
   <si>
-    <t xml:space="preserve">pun as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One</t>
+    <t>pun as</t>
+  </si>
+  <si>
+    <t>matia</t>
+  </si>
+  <si>
+    <t>One</t>
   </si>
   <si>
     <t xml:space="preserve">kawasan </t>
@@ -304,7 +314,7 @@
     <t xml:space="preserve">kawatʃyk </t>
   </si>
   <si>
-    <t xml:space="preserve">kwatadn</t>
+    <t>kwatadn</t>
   </si>
   <si>
     <t xml:space="preserve">tan </t>
@@ -319,10 +329,10 @@
     <t xml:space="preserve">mamai-omaitʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t xml:space="preserve">tyky karakan </t>
@@ -346,19 +356,19 @@
     <t xml:space="preserve">jiksam </t>
   </si>
   <si>
-    <t xml:space="preserve">ajuken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big</t>
+    <t>ajuken</t>
+  </si>
+  <si>
+    <t>Big</t>
   </si>
   <si>
     <t xml:space="preserve">hwaraʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">foraʔ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hora</t>
+    <t>foraʔ</t>
+  </si>
+  <si>
+    <t>hora</t>
   </si>
   <si>
     <t xml:space="preserve">ekem </t>
@@ -370,16 +380,16 @@
     <t xml:space="preserve">ukadn </t>
   </si>
   <si>
-    <t xml:space="preserve">kote ne</t>
+    <t>kote ne</t>
   </si>
   <si>
     <t xml:space="preserve">ina </t>
   </si>
   <si>
-    <t xml:space="preserve">ina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iparinaj</t>
+    <t>ina</t>
+  </si>
+  <si>
+    <t>iparinaj</t>
   </si>
   <si>
     <t xml:space="preserve">F </t>
@@ -391,10 +401,10 @@
     <t xml:space="preserve">G </t>
   </si>
   <si>
-    <t xml:space="preserve">karatsaiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small</t>
+    <t>karatsaiko</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
   <si>
     <t xml:space="preserve">wijima </t>
@@ -418,7 +428,7 @@
     <t xml:space="preserve">e </t>
   </si>
   <si>
-    <t xml:space="preserve">eje</t>
+    <t>eje</t>
   </si>
   <si>
     <t xml:space="preserve">nyaetʃidn </t>
@@ -427,7 +437,7 @@
     <t xml:space="preserve">ip </t>
   </si>
   <si>
-    <t xml:space="preserve">Woman</t>
+    <t>Woman</t>
   </si>
   <si>
     <t xml:space="preserve">narimaʔ </t>
@@ -457,7 +467,7 @@
     <t xml:space="preserve">ɲamaki </t>
   </si>
   <si>
-    <t xml:space="preserve">Man</t>
+    <t>Man</t>
   </si>
   <si>
     <t xml:space="preserve">taramaʔ </t>
@@ -496,7 +506,7 @@
     <t xml:space="preserve">Child </t>
   </si>
   <si>
-    <t xml:space="preserve">hwijimaʔ</t>
+    <t>hwijimaʔ</t>
   </si>
   <si>
     <t xml:space="preserve">ifijama </t>
@@ -529,10 +539,10 @@
     <t xml:space="preserve">etiw </t>
   </si>
   <si>
-    <t xml:space="preserve">witʃitikun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother</t>
+    <t>witʃitikun</t>
+  </si>
+  <si>
+    <t>Mother</t>
   </si>
   <si>
     <t xml:space="preserve">naʔ </t>
@@ -541,10 +551,10 @@
     <t xml:space="preserve">inaʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">inja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inaʔ</t>
+    <t>inja</t>
+  </si>
+  <si>
+    <t>inaʔ</t>
   </si>
   <si>
     <t xml:space="preserve">Mother </t>
@@ -571,10 +581,10 @@
     <t xml:space="preserve">uweʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">uweʔ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father</t>
+    <t>uweʔ</t>
+  </si>
+  <si>
+    <t>Father</t>
   </si>
   <si>
     <t xml:space="preserve">te </t>
@@ -592,28 +602,28 @@
     <t xml:space="preserve">ite </t>
   </si>
   <si>
-    <t xml:space="preserve">tia-tia</t>
+    <t>tia-tia</t>
   </si>
   <si>
     <t xml:space="preserve">tatia </t>
   </si>
   <si>
-    <t xml:space="preserve">Animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patiʔ</t>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>patiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">patiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">karawa </t>
   </si>
   <si>
-    <t xml:space="preserve">Fish</t>
+    <t>Fish</t>
   </si>
   <si>
     <t xml:space="preserve">hwam </t>
@@ -634,7 +644,7 @@
     <t xml:space="preserve">ihuam </t>
   </si>
   <si>
-    <t xml:space="preserve">Bird</t>
+    <t>Bird</t>
   </si>
   <si>
     <t xml:space="preserve">me </t>
@@ -679,7 +689,7 @@
     <t xml:space="preserve">katatʃik </t>
   </si>
   <si>
-    <t xml:space="preserve">oro jaman</t>
+    <t>oro jaman</t>
   </si>
   <si>
     <t xml:space="preserve">Deer </t>
@@ -700,7 +710,7 @@
     <t xml:space="preserve">komem </t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">imariʔ </t>
@@ -715,7 +725,7 @@
     <t xml:space="preserve">towam </t>
   </si>
   <si>
-    <t xml:space="preserve">Louse</t>
+    <t>Louse</t>
   </si>
   <si>
     <t xml:space="preserve">iwʔ </t>
@@ -733,7 +743,7 @@
     <t xml:space="preserve">ahihi </t>
   </si>
   <si>
-    <t xml:space="preserve">Snake</t>
+    <t>Snake</t>
   </si>
   <si>
     <t xml:space="preserve">karakaw </t>
@@ -748,7 +758,7 @@
     <t xml:space="preserve">emʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Worm</t>
+    <t>Worm</t>
   </si>
   <si>
     <t xml:space="preserve">meteʔ </t>
@@ -766,7 +776,7 @@
     <t xml:space="preserve">akak </t>
   </si>
   <si>
-    <t xml:space="preserve">Forest</t>
+    <t>Forest</t>
   </si>
   <si>
     <t xml:space="preserve">mi </t>
@@ -784,7 +794,7 @@
     <t xml:space="preserve">witip </t>
   </si>
   <si>
-    <t xml:space="preserve">Stick</t>
+    <t>Stick</t>
   </si>
   <si>
     <t xml:space="preserve">pana </t>
@@ -793,7 +803,7 @@
     <t xml:space="preserve">pane </t>
   </si>
   <si>
-    <t xml:space="preserve">Fruit</t>
+    <t>Fruit</t>
   </si>
   <si>
     <t xml:space="preserve">ipijam </t>
@@ -817,10 +827,10 @@
     <t xml:space="preserve">maritia </t>
   </si>
   <si>
-    <t xml:space="preserve">pekoɲoɲi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaf</t>
+    <t>pekoɲoɲi</t>
+  </si>
+  <si>
+    <t>Leaf</t>
   </si>
   <si>
     <t xml:space="preserve">taji </t>
@@ -841,7 +851,7 @@
     <t xml:space="preserve">ʃuɲu </t>
   </si>
   <si>
-    <t xml:space="preserve">Root</t>
+    <t>Root</t>
   </si>
   <si>
     <t xml:space="preserve">katʃima </t>
@@ -850,10 +860,10 @@
     <t xml:space="preserve">sikinan </t>
   </si>
   <si>
-    <t xml:space="preserve">Flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piwaɲ</t>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>piwaɲ</t>
   </si>
   <si>
     <t xml:space="preserve">piwan </t>
@@ -865,16 +875,16 @@
     <t xml:space="preserve">tahune </t>
   </si>
   <si>
-    <t xml:space="preserve">tohot ɲe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tononoɲ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwijip</t>
+    <t>tohot ɲe</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>tononoɲ</t>
+  </si>
+  <si>
+    <t>iwijip</t>
   </si>
   <si>
     <t xml:space="preserve">iwip </t>
@@ -892,7 +902,7 @@
     <t xml:space="preserve">towan </t>
   </si>
   <si>
-    <t xml:space="preserve">Rope</t>
+    <t>Rope</t>
   </si>
   <si>
     <t xml:space="preserve">makon </t>
@@ -913,7 +923,7 @@
     <t xml:space="preserve">tukuripa </t>
   </si>
   <si>
-    <t xml:space="preserve">Skin</t>
+    <t>Skin</t>
   </si>
   <si>
     <t xml:space="preserve">taparitʃiʔ </t>
@@ -937,13 +947,13 @@
     <t xml:space="preserve">topan </t>
   </si>
   <si>
-    <t xml:space="preserve">tuparitʃi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paritʃe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meat</t>
+    <t>tuparitʃi</t>
+  </si>
+  <si>
+    <t>paritʃe</t>
+  </si>
+  <si>
+    <t>Meat</t>
   </si>
   <si>
     <t xml:space="preserve">kweretʃiʔ </t>
@@ -952,16 +962,16 @@
     <t xml:space="preserve">ykeresi </t>
   </si>
   <si>
-    <t xml:space="preserve">ikerem</t>
+    <t>ikerem</t>
   </si>
   <si>
     <t xml:space="preserve">ikekren </t>
   </si>
   <si>
-    <t xml:space="preserve">ukun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood</t>
+    <t>ukun</t>
+  </si>
+  <si>
+    <t>Blood</t>
   </si>
   <si>
     <t xml:space="preserve">kitʃiʔ </t>
@@ -985,7 +995,7 @@
     <t xml:space="preserve">aweitʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Bone</t>
+    <t>Bone</t>
   </si>
   <si>
     <t xml:space="preserve">aratʃiʔ </t>
@@ -1018,7 +1028,7 @@
     <t xml:space="preserve">Fat </t>
   </si>
   <si>
-    <t xml:space="preserve">homaɲ</t>
+    <t>homaɲ</t>
   </si>
   <si>
     <t xml:space="preserve">mafomasi </t>
@@ -1045,10 +1055,10 @@
     <t xml:space="preserve">mitaikongo </t>
   </si>
   <si>
-    <t xml:space="preserve">Egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arajeɲ</t>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>arajeɲ</t>
   </si>
   <si>
     <t xml:space="preserve">arikon </t>
@@ -1063,7 +1073,7 @@
     <t xml:space="preserve">azeron </t>
   </si>
   <si>
-    <t xml:space="preserve">ari jaɲ</t>
+    <t>ari jaɲ</t>
   </si>
   <si>
     <t xml:space="preserve">ariʒ̟a </t>
@@ -1075,16 +1085,16 @@
     <t xml:space="preserve">tirantia </t>
   </si>
   <si>
-    <t xml:space="preserve">Horn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pitʃinaɲ</t>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>pitʃinaɲ</t>
   </si>
   <si>
     <t xml:space="preserve">pitikon </t>
   </si>
   <si>
-    <t xml:space="preserve">pitʃi</t>
+    <t>pitʃi</t>
   </si>
   <si>
     <t xml:space="preserve">tatawi </t>
@@ -1099,10 +1109,10 @@
     <t xml:space="preserve">injawan </t>
   </si>
   <si>
-    <t xml:space="preserve">Tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kahwereɲ</t>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>kahwereɲ</t>
   </si>
   <si>
     <t xml:space="preserve">keferesi </t>
@@ -1120,7 +1130,7 @@
     <t xml:space="preserve">sokotʃetitʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Hair</t>
+    <t>Hair</t>
   </si>
   <si>
     <t xml:space="preserve">tenenetʃiʔ </t>
@@ -1129,7 +1139,7 @@
     <t xml:space="preserve">tynesi </t>
   </si>
   <si>
-    <t xml:space="preserve">tiniʃiʔ</t>
+    <t>tiniʃiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">tinji </t>
@@ -1159,7 +1169,7 @@
     <t xml:space="preserve">jupisi </t>
   </si>
   <si>
-    <t xml:space="preserve">Head</t>
+    <t>Head</t>
   </si>
   <si>
     <t xml:space="preserve">ipijisi </t>
@@ -1192,7 +1202,7 @@
     <t xml:space="preserve">totepisi </t>
   </si>
   <si>
-    <t xml:space="preserve">Ear</t>
+    <t>Ear</t>
   </si>
   <si>
     <t xml:space="preserve">tarajitʃiʔ </t>
@@ -1219,7 +1229,7 @@
     <t xml:space="preserve">tenetet </t>
   </si>
   <si>
-    <t xml:space="preserve">Eye</t>
+    <t>Eye</t>
   </si>
   <si>
     <t xml:space="preserve">tokotʃiʔ </t>
@@ -1246,7 +1256,7 @@
     <t xml:space="preserve">kutʃi </t>
   </si>
   <si>
-    <t xml:space="preserve">Nose</t>
+    <t>Nose</t>
   </si>
   <si>
     <t xml:space="preserve">weretʃiʔ </t>
@@ -1279,7 +1289,7 @@
     <t xml:space="preserve">turutʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Mouth</t>
+    <t>Mouth</t>
   </si>
   <si>
     <t xml:space="preserve">topak </t>
@@ -1303,10 +1313,10 @@
     <t xml:space="preserve">tuaraw </t>
   </si>
   <si>
-    <t xml:space="preserve">Tooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tʃitʃiʔ</t>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>tʃitʃiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">ijitisi </t>
@@ -1333,7 +1343,7 @@
     <t xml:space="preserve">ijaditʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Tongue</t>
+    <t>Tongue</t>
   </si>
   <si>
     <t xml:space="preserve">petehwet </t>
@@ -1363,7 +1373,7 @@
     <t xml:space="preserve">kapikakatʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Fingernail</t>
+    <t>Fingernail</t>
   </si>
   <si>
     <t xml:space="preserve">tʃikinatʃiʔ </t>
@@ -1387,7 +1397,7 @@
     <t xml:space="preserve">naimitʃi </t>
   </si>
   <si>
-    <t xml:space="preserve">Foot</t>
+    <t>Foot</t>
   </si>
   <si>
     <t xml:space="preserve">katʃimatʃiʔ </t>
@@ -1405,7 +1415,7 @@
     <t xml:space="preserve">kaimatʃi </t>
   </si>
   <si>
-    <t xml:space="preserve">kaimatʃe</t>
+    <t>kaimatʃe</t>
   </si>
   <si>
     <t xml:space="preserve">pitʃijatʃiʔ </t>
@@ -1423,7 +1433,7 @@
     <t xml:space="preserve">tʃikitʃi </t>
   </si>
   <si>
-    <t xml:space="preserve">Leg</t>
+    <t>Leg</t>
   </si>
   <si>
     <t xml:space="preserve">kokotʃiʔ </t>
@@ -1447,16 +1457,16 @@
     <t xml:space="preserve">ukutʃi </t>
   </si>
   <si>
-    <t xml:space="preserve">kohotʃi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knee</t>
+    <t>kohotʃi</t>
+  </si>
+  <si>
+    <t>Knee</t>
   </si>
   <si>
     <t xml:space="preserve">karamatʃiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">makaramasi</t>
+    <t>makaramasi</t>
   </si>
   <si>
     <t xml:space="preserve">warakaramaʃiʔ </t>
@@ -1483,7 +1493,7 @@
     <t xml:space="preserve">tukaivatʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Hand</t>
+    <t>Hand</t>
   </si>
   <si>
     <t xml:space="preserve">mitʃiʔ </t>
@@ -1492,7 +1502,7 @@
     <t xml:space="preserve">umu </t>
   </si>
   <si>
-    <t xml:space="preserve">um</t>
+    <t>um</t>
   </si>
   <si>
     <t xml:space="preserve">umitʃi </t>
@@ -1501,7 +1511,7 @@
     <t xml:space="preserve">umajo </t>
   </si>
   <si>
-    <t xml:space="preserve">taparatʃiʔ</t>
+    <t>taparatʃiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">tiprasi </t>
@@ -1522,7 +1532,7 @@
     <t xml:space="preserve">tʃeparaju </t>
   </si>
   <si>
-    <t xml:space="preserve">Wing</t>
+    <t>Wing</t>
   </si>
   <si>
     <t xml:space="preserve">tapatʃi </t>
@@ -1534,13 +1544,13 @@
     <t xml:space="preserve">nipat </t>
   </si>
   <si>
-    <t xml:space="preserve">hipatʃi</t>
+    <t>hipatʃi</t>
   </si>
   <si>
     <t xml:space="preserve">ipati-ko </t>
   </si>
   <si>
-    <t xml:space="preserve">Belly</t>
+    <t>Belly</t>
   </si>
   <si>
     <t xml:space="preserve">kimi </t>
@@ -1573,13 +1583,13 @@
     <t xml:space="preserve">tʃakaw </t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">pemenetʃiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Guts</t>
+    <t>Guts</t>
   </si>
   <si>
     <t xml:space="preserve">monotʃiʔ </t>
@@ -1594,7 +1604,7 @@
     <t xml:space="preserve">kirimonʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">mukuri mon</t>
+    <t>mukuri mon</t>
   </si>
   <si>
     <t xml:space="preserve">amunitʃi </t>
@@ -1606,13 +1616,13 @@
     <t xml:space="preserve">karapap wajiʃiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">anteretʃe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paramatʃiʔ</t>
+    <t>anteretʃe</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>paramatʃiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">oparamasi </t>
@@ -1639,7 +1649,7 @@
     <t xml:space="preserve">aikeɲemitʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Back</t>
+    <t>Back</t>
   </si>
   <si>
     <t xml:space="preserve">waratʃiʔ </t>
@@ -1666,10 +1676,10 @@
     <t xml:space="preserve">totojatʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Breast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karatʃitʃiʔ</t>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>karatʃitʃiʔ</t>
   </si>
   <si>
     <t xml:space="preserve">karatisi </t>
@@ -1687,7 +1697,7 @@
     <t xml:space="preserve">kimatʃiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">ikimasi</t>
+    <t>ikimasi</t>
   </si>
   <si>
     <t xml:space="preserve">ikimasi </t>
@@ -1698,13 +1708,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Charis SIL"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">kima</t>
+      <t>kima</t>
     </r>
     <r>
       <rPr>
@@ -1719,13 +1729,13 @@
     <t xml:space="preserve">kematakama </t>
   </si>
   <si>
-    <t xml:space="preserve">Heart</t>
+    <t>Heart</t>
   </si>
   <si>
     <t xml:space="preserve">tʃimitʃiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">timisi</t>
+    <t>timisi</t>
   </si>
   <si>
     <t xml:space="preserve">timiʃiʔ </t>
@@ -1743,13 +1753,13 @@
     <t xml:space="preserve">tuku ritim </t>
   </si>
   <si>
-    <t xml:space="preserve">simitʃi</t>
+    <t>simitʃi</t>
   </si>
   <si>
     <t xml:space="preserve">simitʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Liver</t>
+    <t>Liver</t>
   </si>
   <si>
     <t xml:space="preserve">tarawanatʃiʔ </t>
@@ -1773,7 +1783,7 @@
     <t xml:space="preserve">sawan </t>
   </si>
   <si>
-    <t xml:space="preserve">Drink</t>
+    <t>Drink</t>
   </si>
   <si>
     <t xml:space="preserve">tuka </t>
@@ -1785,7 +1795,7 @@
     <t xml:space="preserve">kot </t>
   </si>
   <si>
-    <t xml:space="preserve">Eat</t>
+    <t>Eat</t>
   </si>
   <si>
     <t xml:space="preserve">kaw </t>
@@ -1794,7 +1804,7 @@
     <t xml:space="preserve">kawʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Bite</t>
+    <t>Bite</t>
   </si>
   <si>
     <t xml:space="preserve">kiw </t>
@@ -1806,7 +1816,7 @@
     <t xml:space="preserve">tapitʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Suck</t>
+    <t>Suck</t>
   </si>
   <si>
     <t xml:space="preserve">tʃak </t>
@@ -1818,7 +1828,7 @@
     <t xml:space="preserve">ʃak </t>
   </si>
   <si>
-    <t xml:space="preserve">Vomit</t>
+    <t>Vomit</t>
   </si>
   <si>
     <t xml:space="preserve">weʔ </t>
@@ -1827,7 +1837,7 @@
     <t xml:space="preserve">yweʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Breathe</t>
+    <t>Breathe</t>
   </si>
   <si>
     <t xml:space="preserve">wereme </t>
@@ -1848,7 +1858,7 @@
     <t xml:space="preserve">ʒ̟ak </t>
   </si>
   <si>
-    <t xml:space="preserve">Laugh</t>
+    <t>Laugh</t>
   </si>
   <si>
     <t xml:space="preserve">tatamʔ </t>
@@ -1869,7 +1879,7 @@
     <t xml:space="preserve">eva </t>
   </si>
   <si>
-    <t xml:space="preserve">See</t>
+    <t>See</t>
   </si>
   <si>
     <t xml:space="preserve">kerek </t>
@@ -1881,10 +1891,10 @@
     <t xml:space="preserve">krid </t>
   </si>
   <si>
-    <t xml:space="preserve">tirig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hear</t>
+    <t>tirig</t>
+  </si>
+  <si>
+    <t>Hear</t>
   </si>
   <si>
     <t xml:space="preserve">worapat </t>
@@ -1899,7 +1909,7 @@
     <t xml:space="preserve">arapat </t>
   </si>
   <si>
-    <t xml:space="preserve">Fear</t>
+    <t>Fear</t>
   </si>
   <si>
     <t xml:space="preserve">jinʔ </t>
@@ -1920,7 +1930,7 @@
     <t xml:space="preserve">ininʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep</t>
+    <t>Sleep</t>
   </si>
   <si>
     <t xml:space="preserve">piʔ am </t>
@@ -1935,7 +1945,7 @@
     <t xml:space="preserve">upejamʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">upoɲ</t>
+    <t>upoɲ</t>
   </si>
   <si>
     <t xml:space="preserve">upin </t>
@@ -1950,7 +1960,7 @@
     <t xml:space="preserve">ootʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Die</t>
+    <t>Die</t>
   </si>
   <si>
     <t xml:space="preserve">miʔ  </t>
@@ -1962,7 +1972,7 @@
     <t xml:space="preserve">imi </t>
   </si>
   <si>
-    <t xml:space="preserve">Kill</t>
+    <t>Kill</t>
   </si>
   <si>
     <t xml:space="preserve">paʔ </t>
@@ -1980,16 +1990,16 @@
     <t xml:space="preserve">tioakko </t>
   </si>
   <si>
-    <t xml:space="preserve">Fight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manaʔ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tamanaʔ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitʃitaʔ</t>
+    <t>Fight</t>
+  </si>
+  <si>
+    <t>manaʔ</t>
+  </si>
+  <si>
+    <t>tamanaʔ</t>
+  </si>
+  <si>
+    <t>mitʃitaʔ</t>
   </si>
   <si>
     <t xml:space="preserve">aʃeremi </t>
@@ -1998,13 +2008,13 @@
     <t xml:space="preserve">arami je </t>
   </si>
   <si>
-    <t xml:space="preserve">eke</t>
+    <t>eke</t>
   </si>
   <si>
     <t xml:space="preserve">jim </t>
   </si>
   <si>
-    <t xml:space="preserve">Shoot</t>
+    <t>Shoot</t>
   </si>
   <si>
     <t xml:space="preserve">hyry </t>
@@ -2025,7 +2035,7 @@
     <t xml:space="preserve">keu </t>
   </si>
   <si>
-    <t xml:space="preserve">Hit</t>
+    <t>Hit</t>
   </si>
   <si>
     <t xml:space="preserve">toʔ </t>
@@ -2046,7 +2056,7 @@
     <t xml:space="preserve">pap </t>
   </si>
   <si>
-    <t xml:space="preserve">Cut</t>
+    <t>Cut</t>
   </si>
   <si>
     <t xml:space="preserve">ta </t>
@@ -2076,7 +2086,7 @@
     <t xml:space="preserve">pitʃiram </t>
   </si>
   <si>
-    <t xml:space="preserve">Dig</t>
+    <t>Dig</t>
   </si>
   <si>
     <t xml:space="preserve">tikiʔ </t>
@@ -2091,7 +2101,7 @@
     <t xml:space="preserve">putum </t>
   </si>
   <si>
-    <t xml:space="preserve">Swim</t>
+    <t>Swim</t>
   </si>
   <si>
     <t xml:space="preserve">jy </t>
@@ -2112,7 +2122,7 @@
     <t xml:space="preserve">kawa ko </t>
   </si>
   <si>
-    <t xml:space="preserve">marakujan</t>
+    <t>marakujan</t>
   </si>
   <si>
     <t xml:space="preserve">Fly </t>
@@ -2133,7 +2143,7 @@
     <t xml:space="preserve">ʒ̟e </t>
   </si>
   <si>
-    <t xml:space="preserve">Walk</t>
+    <t>Walk</t>
   </si>
   <si>
     <r>
@@ -2170,7 +2180,7 @@
     <t xml:space="preserve">tut </t>
   </si>
   <si>
-    <t xml:space="preserve">Come</t>
+    <t>Come</t>
   </si>
   <si>
     <t xml:space="preserve">makiʔ </t>
@@ -2185,10 +2195,10 @@
     <t xml:space="preserve">mana </t>
   </si>
   <si>
-    <t xml:space="preserve">nia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lie</t>
+    <t>nia</t>
+  </si>
+  <si>
+    <t>Lie</t>
   </si>
   <si>
     <t xml:space="preserve">teremʔ </t>
@@ -2212,19 +2222,19 @@
     <t xml:space="preserve">tak </t>
   </si>
   <si>
-    <t xml:space="preserve">ta</t>
+    <t>ta</t>
   </si>
   <si>
     <t xml:space="preserve">wa </t>
   </si>
   <si>
-    <t xml:space="preserve">Sit</t>
+    <t>Sit</t>
   </si>
   <si>
     <t xml:space="preserve">peʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">pe</t>
+    <t>pe</t>
   </si>
   <si>
     <t xml:space="preserve">pe </t>
@@ -2233,13 +2243,13 @@
     <t xml:space="preserve">pi </t>
   </si>
   <si>
-    <t xml:space="preserve">pwe</t>
+    <t>pwe</t>
   </si>
   <si>
     <t xml:space="preserve">pepe </t>
   </si>
   <si>
-    <t xml:space="preserve">Stand</t>
+    <t>Stand</t>
   </si>
   <si>
     <t xml:space="preserve">tekiʔ pe </t>
@@ -2257,7 +2267,7 @@
     <t xml:space="preserve">sed </t>
   </si>
   <si>
-    <t xml:space="preserve">Fall</t>
+    <t>Fall</t>
   </si>
   <si>
     <t xml:space="preserve">panʔ </t>
@@ -2272,7 +2282,7 @@
     <t xml:space="preserve">kamaraʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Give</t>
+    <t>Give</t>
   </si>
   <si>
     <t xml:space="preserve">miʔ </t>
@@ -2281,7 +2291,7 @@
     <t xml:space="preserve">min </t>
   </si>
   <si>
-    <t xml:space="preserve">Wash</t>
+    <t>Wash</t>
   </si>
   <si>
     <t xml:space="preserve">wirikom </t>
@@ -2318,7 +2328,7 @@
     <t xml:space="preserve">tʃaw </t>
   </si>
   <si>
-    <t xml:space="preserve">Pull</t>
+    <t>Pull</t>
   </si>
   <si>
     <t xml:space="preserve">køk </t>
@@ -2330,7 +2340,7 @@
     <t xml:space="preserve">ko </t>
   </si>
   <si>
-    <t xml:space="preserve">Push</t>
+    <t>Push</t>
   </si>
   <si>
     <t xml:space="preserve">jøk </t>
@@ -2348,7 +2358,7 @@
     <t xml:space="preserve">tun </t>
   </si>
   <si>
-    <t xml:space="preserve">Throw</t>
+    <t>Throw</t>
   </si>
   <si>
     <t xml:space="preserve">tʃin </t>
@@ -2366,7 +2376,7 @@
     <t xml:space="preserve">pwin </t>
   </si>
   <si>
-    <t xml:space="preserve">Tie</t>
+    <t>Tie</t>
   </si>
   <si>
     <t xml:space="preserve">pawʔ </t>
@@ -2378,7 +2388,7 @@
     <t xml:space="preserve">pip </t>
   </si>
   <si>
-    <t xml:space="preserve">Say</t>
+    <t>Say</t>
   </si>
   <si>
     <t xml:space="preserve">tomiʔ </t>
@@ -2396,7 +2406,7 @@
     <t xml:space="preserve">jajara </t>
   </si>
   <si>
-    <t xml:space="preserve">Sing</t>
+    <t>Sing</t>
   </si>
   <si>
     <t xml:space="preserve">kom </t>
@@ -2408,7 +2418,7 @@
     <t xml:space="preserve">haka </t>
   </si>
   <si>
-    <t xml:space="preserve">?-</t>
+    <t>?-</t>
   </si>
   <si>
     <t xml:space="preserve">wo </t>
@@ -2420,7 +2430,7 @@
     <t xml:space="preserve">atʃimara </t>
   </si>
   <si>
-    <t xml:space="preserve">Sun</t>
+    <t>Sun</t>
   </si>
   <si>
     <t xml:space="preserve">wapiru </t>
@@ -2450,7 +2460,7 @@
     <t xml:space="preserve">fakamiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Moon</t>
+    <t>Moon</t>
   </si>
   <si>
     <t xml:space="preserve">panawoʔ </t>
@@ -2471,7 +2481,7 @@
     <t xml:space="preserve">pnato </t>
   </si>
   <si>
-    <t xml:space="preserve">Star</t>
+    <t>Star</t>
   </si>
   <si>
     <t xml:space="preserve">pijoʔ </t>
@@ -2501,7 +2511,7 @@
     <t xml:space="preserve">oro jawin </t>
   </si>
   <si>
-    <t xml:space="preserve">Water</t>
+    <t>Water</t>
   </si>
   <si>
     <r>
@@ -2529,7 +2539,7 @@
     <t xml:space="preserve">ako </t>
   </si>
   <si>
-    <t xml:space="preserve">Rain</t>
+    <t>Rain</t>
   </si>
   <si>
     <t xml:space="preserve">tʃowiʔ </t>
@@ -2550,7 +2560,7 @@
     <t xml:space="preserve">tʃuwe </t>
   </si>
   <si>
-    <t xml:space="preserve">Stone</t>
+    <t>Stone</t>
   </si>
   <si>
     <t xml:space="preserve">pakyn </t>
@@ -2568,7 +2578,7 @@
     <t xml:space="preserve">pikun </t>
   </si>
   <si>
-    <t xml:space="preserve">pikun</t>
+    <t>pikun</t>
   </si>
   <si>
     <t xml:space="preserve">pekun </t>
@@ -2577,7 +2587,7 @@
     <t xml:space="preserve">pikui </t>
   </si>
   <si>
-    <t xml:space="preserve">Sand</t>
+    <t>Sand</t>
   </si>
   <si>
     <t xml:space="preserve">namaji </t>
@@ -2601,10 +2611,10 @@
     <t xml:space="preserve">umati </t>
   </si>
   <si>
-    <t xml:space="preserve">mate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth</t>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>Earth</t>
   </si>
   <si>
     <t xml:space="preserve">makanʔ </t>
@@ -2653,7 +2663,7 @@
     <t xml:space="preserve">tʃema </t>
   </si>
   <si>
-    <t xml:space="preserve">Sky</t>
+    <t>Sky</t>
   </si>
   <si>
     <t xml:space="preserve">nanawin </t>
@@ -2665,7 +2675,7 @@
     <t xml:space="preserve">awen </t>
   </si>
   <si>
-    <t xml:space="preserve">Wind</t>
+    <t>Wind</t>
   </si>
   <si>
     <t xml:space="preserve">hotowa </t>
@@ -2677,10 +2687,10 @@
     <t xml:space="preserve">pahotiʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">pahuzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kako</t>
+    <t>pahuzi</t>
+  </si>
+  <si>
+    <t>kako</t>
   </si>
   <si>
     <t xml:space="preserve">kaho </t>
@@ -2692,7 +2702,7 @@
     <t xml:space="preserve">irin </t>
   </si>
   <si>
-    <t xml:space="preserve">Smoke</t>
+    <t>Smoke</t>
   </si>
   <si>
     <t xml:space="preserve">iwiʔ </t>
@@ -2704,7 +2714,7 @@
     <t xml:space="preserve">torotoʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Fire</t>
+    <t>Fire</t>
   </si>
   <si>
     <t xml:space="preserve">tʃe </t>
@@ -2719,7 +2729,7 @@
     <t xml:space="preserve">itʃe </t>
   </si>
   <si>
-    <t xml:space="preserve">Ashes</t>
+    <t>Ashes</t>
   </si>
   <si>
     <t xml:space="preserve">topakon </t>
@@ -2749,7 +2759,7 @@
     <t xml:space="preserve">wanaʔ </t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t>Red</t>
   </si>
   <si>
     <t xml:space="preserve">mem </t>
@@ -2776,7 +2786,7 @@
     <t xml:space="preserve">tiopatʃene </t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow</t>
+    <t>Yellow</t>
   </si>
   <si>
     <t xml:space="preserve">kotʃik </t>
@@ -2788,10 +2798,10 @@
     <t xml:space="preserve">ituwi </t>
   </si>
   <si>
-    <t xml:space="preserve">atʃiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White</t>
+    <t>atʃiwi</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
   <si>
     <t xml:space="preserve">towoʔ </t>
@@ -2818,7 +2828,7 @@
     <t xml:space="preserve">tihoti </t>
   </si>
   <si>
-    <t xml:space="preserve">Black</t>
+    <t>Black</t>
   </si>
   <si>
     <t xml:space="preserve">mitʃem </t>
@@ -2827,7 +2837,7 @@
     <t xml:space="preserve">mesem </t>
   </si>
   <si>
-    <t xml:space="preserve">morem</t>
+    <t>morem</t>
   </si>
   <si>
     <t xml:space="preserve">tukan </t>
@@ -2848,7 +2858,7 @@
     <t xml:space="preserve">tom </t>
   </si>
   <si>
-    <t xml:space="preserve">Night</t>
+    <t>Night</t>
   </si>
   <si>
     <t xml:space="preserve">tʃim </t>
@@ -2869,7 +2879,7 @@
     <t xml:space="preserve">paitin </t>
   </si>
   <si>
-    <t xml:space="preserve">Day</t>
+    <t>Day</t>
   </si>
   <si>
     <t xml:space="preserve">tuwa </t>
@@ -2887,7 +2897,7 @@
     <t xml:space="preserve">tijipat </t>
   </si>
   <si>
-    <t xml:space="preserve">Summer</t>
+    <t>Summer</t>
   </si>
   <si>
     <t xml:space="preserve">kawatʃiʔ </t>
@@ -2923,22 +2933,22 @@
     <t xml:space="preserve">kipin </t>
   </si>
   <si>
-    <t xml:space="preserve">New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tʃokori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sokori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tukurudn</t>
+    <t>New</t>
+  </si>
+  <si>
+    <t>tʃokori</t>
+  </si>
+  <si>
+    <t>sokori</t>
+  </si>
+  <si>
+    <t>tukurudn</t>
   </si>
   <si>
     <t xml:space="preserve">takan </t>
   </si>
   <si>
-    <t xml:space="preserve">Old</t>
+    <t>Old</t>
   </si>
   <si>
     <t xml:space="preserve">horon </t>
@@ -2962,7 +2972,7 @@
     <t xml:space="preserve">ukut </t>
   </si>
   <si>
-    <t xml:space="preserve">Good</t>
+    <t>Good</t>
   </si>
   <si>
     <t xml:space="preserve">awiʔ </t>
@@ -2995,7 +3005,7 @@
     <t xml:space="preserve">piriman </t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t>Name</t>
   </si>
   <si>
     <t xml:space="preserve">witʃi  </t>
@@ -3013,7 +3023,7 @@
     <t xml:space="preserve">viti </t>
   </si>
   <si>
-    <t xml:space="preserve">Afternoon</t>
+    <t>Afternoon</t>
   </si>
   <si>
     <t xml:space="preserve">irawin </t>
@@ -3029,25 +3039,23 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Everett &amp; Kern (1997) (primary); Kern (1996) (</t>
+      <t>Everett &amp; Kern (1997) (primary); Kern (1996) (</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Charis SIL"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">secondary</t>
+      <t>secondary</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -3060,25 +3068,23 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Birchall fieldwork (primary); França (2002) (</t>
+      <t>Birchall fieldwork (primary); França (2002) (</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Charis SIL"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">secondary</t>
+      <t>secondary</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -3091,27 +3097,25 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Ribeiro (1998) (primary); Hanke (1975) (</t>
+      <t>Ribeiro (1998) (primary); Hanke (1975) (</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Charis SIL"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">secondary</t>
+      <t>secondary</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -3127,7 +3131,7 @@
     <t xml:space="preserve">Rondon &amp; de Faria (1948) (primary) </t>
   </si>
   <si>
-    <t xml:space="preserve">Torá:</t>
+    <t>Torá:</t>
   </si>
   <si>
     <t xml:space="preserve">Cojubim: </t>
@@ -3143,66 +3147,49 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Angenot de Lima (2002) (primary); Leigue Castedo (1957) (</t>
+      <t>Angenot de Lima (2002) (primary); Leigue Castedo (1957) (</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Charis SIL"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">secondary</t>
+      <t>secondary</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="0"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tapakura:</t>
+    <t>Tapakura:</t>
   </si>
   <si>
     <t xml:space="preserve">Créqui-Montfort &amp; Rivet (1913) (primary) </t>
   </si>
   <si>
-    <t xml:space="preserve">Kitemoka:</t>
+    <t>Kitemoka:</t>
+  </si>
+  <si>
+    <t>Kitemoka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3217,7 +3204,7 @@
       <family val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Charis SIL"/>
@@ -3231,16 +3218,14 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Charis SIL"/>
@@ -3256,14 +3241,14 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -3274,7 +3259,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -3283,7 +3268,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3292,130 +3277,110 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3474,28 +3439,296 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L286"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="22" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,9 +3762,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3569,7 +3804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3645,7 +3880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3683,7 +3918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -3721,7 +3956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -3759,7 +3994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -3797,7 +4032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -3835,7 +4070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -3873,7 +4108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>63</v>
       </c>
@@ -3911,7 +4146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -3949,7 +4184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
@@ -3987,7 +4222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -4025,7 +4260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -4063,7 +4298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -4101,7 +4336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
@@ -4139,7 +4374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
@@ -4177,7 +4412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -4215,7 +4450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
@@ -4253,7 +4488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4291,7 +4526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -4329,7 +4564,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -4367,7 +4602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -4405,7 +4640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
@@ -4443,7 +4678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>93</v>
       </c>
@@ -4481,7 +4716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -4519,7 +4754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>103</v>
       </c>
@@ -4557,7 +4792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>103</v>
       </c>
@@ -4595,7 +4830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>103</v>
       </c>
@@ -4633,7 +4868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>103</v>
       </c>
@@ -4671,7 +4906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>103</v>
       </c>
@@ -4709,7 +4944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -4747,7 +4982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>103</v>
       </c>
@@ -4785,7 +5020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>118</v>
       </c>
@@ -4823,7 +5058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>118</v>
       </c>
@@ -4861,7 +5096,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>118</v>
       </c>
@@ -4899,7 +5134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
@@ -4937,7 +5172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -4975,7 +5210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>129</v>
       </c>
@@ -5013,7 +5248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>129</v>
       </c>
@@ -5051,7 +5286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>129</v>
       </c>
@@ -5089,7 +5324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>139</v>
       </c>
@@ -5127,7 +5362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>139</v>
       </c>
@@ -5165,7 +5400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>146</v>
       </c>
@@ -5203,7 +5438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>151</v>
       </c>
@@ -5241,7 +5476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>151</v>
       </c>
@@ -5279,7 +5514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>151</v>
       </c>
@@ -5317,7 +5552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>151</v>
       </c>
@@ -5355,7 +5590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>151</v>
       </c>
@@ -5393,7 +5628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>164</v>
       </c>
@@ -5431,7 +5666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
@@ -5469,7 +5704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>178</v>
       </c>
@@ -5507,7 +5742,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>186</v>
       </c>
@@ -5545,7 +5780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>186</v>
       </c>
@@ -5583,7 +5818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>191</v>
       </c>
@@ -5621,7 +5856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>198</v>
       </c>
@@ -5659,7 +5894,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>206</v>
       </c>
@@ -5697,7 +5932,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>206</v>
       </c>
@@ -5735,7 +5970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>206</v>
       </c>
@@ -5773,7 +6008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>214</v>
       </c>
@@ -5811,7 +6046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>214</v>
       </c>
@@ -5849,7 +6084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>214</v>
       </c>
@@ -5887,7 +6122,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>214</v>
       </c>
@@ -5925,7 +6160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>214</v>
       </c>
@@ -5963,7 +6198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>225</v>
       </c>
@@ -6001,7 +6236,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>231</v>
       </c>
@@ -6039,7 +6274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
@@ -6077,7 +6312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>236</v>
       </c>
@@ -6115,7 +6350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
@@ -6153,7 +6388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>236</v>
       </c>
@@ -6191,7 +6426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>242</v>
       </c>
@@ -6229,7 +6464,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>242</v>
       </c>
@@ -6267,7 +6502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>242</v>
       </c>
@@ -6305,7 +6540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>248</v>
       </c>
@@ -6343,7 +6578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>251</v>
       </c>
@@ -6381,7 +6616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>251</v>
       </c>
@@ -6419,7 +6654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>251</v>
       </c>
@@ -6457,7 +6692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>251</v>
       </c>
@@ -6495,7 +6730,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>260</v>
       </c>
@@ -6533,7 +6768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>260</v>
       </c>
@@ -6571,7 +6806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>260</v>
       </c>
@@ -6609,7 +6844,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>260</v>
       </c>
@@ -6647,7 +6882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>267</v>
       </c>
@@ -6685,7 +6920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>270</v>
       </c>
@@ -6723,7 +6958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>270</v>
       </c>
@@ -6761,7 +6996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>276</v>
       </c>
@@ -6799,7 +7034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>276</v>
       </c>
@@ -6837,7 +7072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>276</v>
       </c>
@@ -6875,7 +7110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>276</v>
       </c>
@@ -6913,7 +7148,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>276</v>
       </c>
@@ -6951,7 +7186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>284</v>
       </c>
@@ -6989,7 +7224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>284</v>
       </c>
@@ -7027,7 +7262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>291</v>
       </c>
@@ -7065,7 +7300,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>301</v>
       </c>
@@ -7103,7 +7338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>307</v>
       </c>
@@ -7141,7 +7376,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>315</v>
       </c>
@@ -7179,7 +7414,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>325</v>
       </c>
@@ -7217,7 +7452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>325</v>
       </c>
@@ -7255,7 +7490,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>335</v>
       </c>
@@ -7293,7 +7528,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>345</v>
       </c>
@@ -7331,7 +7566,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>345</v>
       </c>
@@ -7369,7 +7604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>345</v>
       </c>
@@ -7407,7 +7642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>345</v>
       </c>
@@ -7445,7 +7680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>353</v>
       </c>
@@ -7483,7 +7718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>353</v>
       </c>
@@ -7521,7 +7756,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>360</v>
       </c>
@@ -7559,7 +7794,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -7597,7 +7832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>360</v>
       </c>
@@ -7635,7 +7870,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>373</v>
       </c>
@@ -7673,7 +7908,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>373</v>
       </c>
@@ -7711,7 +7946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>373</v>
       </c>
@@ -7749,7 +7984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>384</v>
       </c>
@@ -7787,7 +8022,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>384</v>
       </c>
@@ -7825,7 +8060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>393</v>
       </c>
@@ -7863,7 +8098,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>402</v>
       </c>
@@ -7901,7 +8136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>413</v>
       </c>
@@ -7939,7 +8174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>413</v>
       </c>
@@ -7977,7 +8212,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>413</v>
       </c>
@@ -8015,7 +8250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>421</v>
       </c>
@@ -8053,7 +8288,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>431</v>
       </c>
@@ -8091,7 +8326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>431</v>
       </c>
@@ -8129,7 +8364,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>441</v>
       </c>
@@ -8167,7 +8402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>441</v>
       </c>
@@ -8205,7 +8440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>441</v>
       </c>
@@ -8243,7 +8478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>449</v>
       </c>
@@ -8281,7 +8516,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>449</v>
       </c>
@@ -8319,7 +8554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>449</v>
       </c>
@@ -8357,7 +8592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>461</v>
       </c>
@@ -8395,7 +8630,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>470</v>
       </c>
@@ -8433,7 +8668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>470</v>
       </c>
@@ -8471,7 +8706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>470</v>
       </c>
@@ -8509,7 +8744,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>481</v>
       </c>
@@ -8547,7 +8782,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>481</v>
       </c>
@@ -8585,7 +8820,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>494</v>
       </c>
@@ -8623,7 +8858,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>500</v>
       </c>
@@ -8661,7 +8896,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>500</v>
       </c>
@@ -8699,7 +8934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>500</v>
       </c>
@@ -8737,7 +8972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>500</v>
       </c>
@@ -8775,7 +9010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>513</v>
       </c>
@@ -8813,7 +9048,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>513</v>
       </c>
@@ -8851,7 +9086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>513</v>
       </c>
@@ -8889,7 +9124,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>523</v>
       </c>
@@ -8927,7 +9162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>523</v>
       </c>
@@ -8965,7 +9200,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>533</v>
       </c>
@@ -9003,7 +9238,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>542</v>
       </c>
@@ -9041,7 +9276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>542</v>
       </c>
@@ -9079,7 +9314,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>554</v>
       </c>
@@ -9117,7 +9352,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>564</v>
       </c>
@@ -9155,7 +9390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>572</v>
       </c>
@@ -9193,7 +9428,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>576</v>
       </c>
@@ -9231,7 +9466,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>579</v>
       </c>
@@ -9269,7 +9504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>579</v>
       </c>
@@ -9307,7 +9542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>583</v>
       </c>
@@ -9345,7 +9580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>587</v>
       </c>
@@ -9383,7 +9618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>590</v>
       </c>
@@ -9421,7 +9656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>590</v>
       </c>
@@ -9459,7 +9694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>597</v>
       </c>
@@ -9497,7 +9732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>597</v>
       </c>
@@ -9535,7 +9770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>597</v>
       </c>
@@ -9573,7 +9808,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>604</v>
       </c>
@@ -9611,7 +9846,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>609</v>
       </c>
@@ -9649,7 +9884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>614</v>
       </c>
@@ -9687,7 +9922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>621</v>
       </c>
@@ -9725,7 +9960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>621</v>
       </c>
@@ -9763,7 +9998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>621</v>
       </c>
@@ -9801,7 +10036,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>631</v>
       </c>
@@ -9839,7 +10074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>635</v>
       </c>
@@ -9877,7 +10112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>635</v>
       </c>
@@ -9915,7 +10150,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>641</v>
       </c>
@@ -9953,7 +10188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>641</v>
       </c>
@@ -9991,7 +10226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>641</v>
       </c>
@@ -10029,7 +10264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>641</v>
       </c>
@@ -10067,7 +10302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>641</v>
       </c>
@@ -10105,7 +10340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>649</v>
       </c>
@@ -10143,7 +10378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>649</v>
       </c>
@@ -10181,7 +10416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>649</v>
       </c>
@@ -10219,7 +10454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>656</v>
       </c>
@@ -10257,7 +10492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>656</v>
       </c>
@@ -10295,7 +10530,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>663</v>
       </c>
@@ -10333,7 +10568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>663</v>
       </c>
@@ -10371,7 +10606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>663</v>
       </c>
@@ -10409,7 +10644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>673</v>
       </c>
@@ -10447,7 +10682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>673</v>
       </c>
@@ -10485,7 +10720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>678</v>
       </c>
@@ -10523,7 +10758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>678</v>
       </c>
@@ -10561,7 +10796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>678</v>
       </c>
@@ -10599,7 +10834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>678</v>
       </c>
@@ -10637,7 +10872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>678</v>
       </c>
@@ -10675,7 +10910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>686</v>
       </c>
@@ -10713,7 +10948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>686</v>
       </c>
@@ -10751,7 +10986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>686</v>
       </c>
@@ -10789,7 +11024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>692</v>
       </c>
@@ -10827,7 +11062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>699</v>
       </c>
@@ -10865,7 +11100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>699</v>
       </c>
@@ -10903,7 +11138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>699</v>
       </c>
@@ -10941,7 +11176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>699</v>
       </c>
@@ -10979,7 +11214,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>705</v>
       </c>
@@ -11017,7 +11252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>705</v>
       </c>
@@ -11055,7 +11290,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>705</v>
       </c>
@@ -11093,7 +11328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>705</v>
       </c>
@@ -11131,7 +11366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>715</v>
       </c>
@@ -11169,7 +11404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>722</v>
       </c>
@@ -11207,7 +11442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>722</v>
       </c>
@@ -11245,7 +11480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>722</v>
       </c>
@@ -11283,7 +11518,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>728</v>
       </c>
@@ -11321,7 +11556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>728</v>
       </c>
@@ -11359,7 +11594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>733</v>
       </c>
@@ -11397,7 +11632,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>736</v>
       </c>
@@ -11435,7 +11670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>736</v>
       </c>
@@ -11473,7 +11708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>736</v>
       </c>
@@ -11511,7 +11746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>743</v>
       </c>
@@ -11549,7 +11784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>747</v>
       </c>
@@ -11587,7 +11822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>747</v>
       </c>
@@ -11625,7 +11860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>753</v>
       </c>
@@ -11663,7 +11898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>753</v>
       </c>
@@ -11701,7 +11936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>759</v>
       </c>
@@ -11739,7 +11974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>759</v>
       </c>
@@ -11777,7 +12012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>763</v>
       </c>
@@ -11815,7 +12050,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>763</v>
       </c>
@@ -11853,7 +12088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>763</v>
       </c>
@@ -11891,7 +12126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>763</v>
       </c>
@@ -11929,7 +12164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>763</v>
       </c>
@@ -11967,7 +12202,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>769</v>
       </c>
@@ -12005,7 +12240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>769</v>
       </c>
@@ -12041,7 +12276,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>769</v>
       </c>
@@ -12079,7 +12314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>769</v>
       </c>
@@ -12115,7 +12350,7 @@
       </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>777</v>
       </c>
@@ -12153,7 +12388,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>777</v>
       </c>
@@ -12191,7 +12426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>777</v>
       </c>
@@ -12229,7 +12464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>777</v>
       </c>
@@ -12267,7 +12502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>787</v>
       </c>
@@ -12305,7 +12540,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>794</v>
       </c>
@@ -12343,7 +12578,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>794</v>
       </c>
@@ -12381,7 +12616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>804</v>
       </c>
@@ -12419,7 +12654,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>808</v>
       </c>
@@ -12457,7 +12692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>815</v>
       </c>
@@ -12495,7 +12730,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>824</v>
       </c>
@@ -12533,7 +12768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>824</v>
       </c>
@@ -12571,7 +12806,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>833</v>
       </c>
@@ -12609,7 +12844,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>833</v>
       </c>
@@ -12647,7 +12882,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>844</v>
       </c>
@@ -12685,7 +12920,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>848</v>
       </c>
@@ -12723,7 +12958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>848</v>
       </c>
@@ -12761,7 +12996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>848</v>
       </c>
@@ -12799,7 +13034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>848</v>
       </c>
@@ -12837,7 +13072,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>857</v>
       </c>
@@ -12875,7 +13110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>857</v>
       </c>
@@ -12913,7 +13148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>857</v>
       </c>
@@ -12951,7 +13186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>861</v>
       </c>
@@ -12989,7 +13224,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:12" ht="34" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>866</v>
       </c>
@@ -13027,7 +13262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>873</v>
       </c>
@@ -13065,7 +13300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>876</v>
       </c>
@@ -13103,7 +13338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>876</v>
       </c>
@@ -13141,7 +13376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>876</v>
       </c>
@@ -13179,7 +13414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>876</v>
       </c>
@@ -13217,7 +13452,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>885</v>
       </c>
@@ -13255,7 +13490,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>885</v>
       </c>
@@ -13293,7 +13528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>885</v>
       </c>
@@ -13331,7 +13566,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>890</v>
       </c>
@@ -13369,7 +13604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>890</v>
       </c>
@@ -13407,7 +13642,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>899</v>
       </c>
@@ -13445,7 +13680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>899</v>
       </c>
@@ -13483,7 +13718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>899</v>
       </c>
@@ -13521,7 +13756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>899</v>
       </c>
@@ -13559,7 +13794,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>899</v>
       </c>
@@ -13597,7 +13832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>909</v>
       </c>
@@ -13635,7 +13870,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>916</v>
       </c>
@@ -13673,7 +13908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>916</v>
       </c>
@@ -13711,7 +13946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>916</v>
       </c>
@@ -13749,7 +13984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>922</v>
       </c>
@@ -13787,7 +14022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>927</v>
       </c>
@@ -13825,7 +14060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>927</v>
       </c>
@@ -13863,7 +14098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>934</v>
       </c>
@@ -13901,7 +14136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>934</v>
       </c>
@@ -13939,7 +14174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>939</v>
       </c>
@@ -13977,7 +14212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>939</v>
       </c>
@@ -14015,7 +14250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>939</v>
       </c>
@@ -14053,7 +14288,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>939</v>
       </c>
@@ -14091,7 +14326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>947</v>
       </c>
@@ -14129,7 +14364,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>947</v>
       </c>
@@ -14167,7 +14402,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>947</v>
       </c>
@@ -14205,7 +14440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>947</v>
       </c>
@@ -14243,7 +14478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>947</v>
       </c>
@@ -14281,7 +14516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>958</v>
       </c>
@@ -14319,7 +14554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A286" s="8" t="s">
         <v>964</v>
       </c>
@@ -14358,10 +14593,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -14369,24 +14603,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="92.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="9" width="11.5204081632653"/>
+    <col min="1" max="1025" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>967</v>
       </c>
@@ -14394,7 +14623,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>969</v>
       </c>
@@ -14402,7 +14631,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>971</v>
       </c>
@@ -14410,7 +14639,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>973</v>
       </c>
@@ -14418,7 +14647,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>975</v>
       </c>
@@ -14426,7 +14655,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>977</v>
       </c>
@@ -14434,7 +14663,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>978</v>
       </c>
@@ -14442,7 +14671,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>980</v>
       </c>
@@ -14450,7 +14679,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>982</v>
       </c>
@@ -14458,7 +14687,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>984</v>
       </c>
@@ -14467,10 +14696,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
